--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_294.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_294.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,148 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:08.980000', '0:00:20.580000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:03.780000', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -618,587 +638,546 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(58.46, 63.46), (16.92, 23.9)]</t>
+          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(58.56, 62.9)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_208</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:01:14.960000', '0:01:22.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:16.260000', '0:00:21.140000'), ('0:00:36.600000', '0:00:39')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09859913793103448</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.605464, 10.96619)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[('0:00:44.860000', '0:00:48')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(59.62, 64.34), (18.12, 24.54)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.92, 8.32)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(46.52, 48.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
